--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam5</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H2">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I2">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J2">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>42.06425218491421</v>
+        <v>0.03704427763688889</v>
       </c>
       <c r="R2">
-        <v>42.06425218491421</v>
+        <v>0.333398498732</v>
       </c>
       <c r="S2">
-        <v>0.01262367785511495</v>
+        <v>9.16479187794732E-06</v>
       </c>
       <c r="T2">
-        <v>0.01262367785511495</v>
+        <v>9.164791877947322E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H3">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I3">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J3">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>40.70998518297369</v>
+        <v>92.16391863840488</v>
       </c>
       <c r="R3">
-        <v>40.70998518297369</v>
+        <v>829.4752677456439</v>
       </c>
       <c r="S3">
-        <v>0.01221725602483597</v>
+        <v>0.0228014469942297</v>
       </c>
       <c r="T3">
-        <v>0.01221725602483597</v>
+        <v>0.02280144699422971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H4">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I4">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J4">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>75.80805703568937</v>
+        <v>65.72446778271834</v>
       </c>
       <c r="R4">
-        <v>75.80805703568937</v>
+        <v>591.520210044465</v>
       </c>
       <c r="S4">
-        <v>0.02275035074043063</v>
+        <v>0.01626030002317127</v>
       </c>
       <c r="T4">
-        <v>0.02275035074043063</v>
+        <v>0.01626030002317127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.512472104703855</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H5">
-        <v>0.512472104703855</v>
+        <v>1.977781</v>
       </c>
       <c r="I5">
-        <v>0.05903971821192823</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J5">
-        <v>0.05903971821192823</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>52.18311746788293</v>
+        <v>124.01381071131</v>
       </c>
       <c r="R5">
-        <v>52.18311746788293</v>
+        <v>1116.12429640179</v>
       </c>
       <c r="S5">
-        <v>0.01566039642151123</v>
+        <v>0.03068114261265867</v>
       </c>
       <c r="T5">
-        <v>0.01566039642151123</v>
+        <v>0.03068114261265868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.512472104703855</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H6">
-        <v>0.512472104703855</v>
+        <v>0.692693</v>
       </c>
       <c r="I6">
-        <v>0.05903971821192823</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J6">
-        <v>0.05903971821192823</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>50.50307157679053</v>
+        <v>0.01297429382177778</v>
       </c>
       <c r="R6">
-        <v>50.50307157679053</v>
+        <v>0.116768644396</v>
       </c>
       <c r="S6">
-        <v>0.01515620683036556</v>
+        <v>3.209853457137551E-06</v>
       </c>
       <c r="T6">
-        <v>0.01515620683036556</v>
+        <v>3.209853457137552E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.512472104703855</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H7">
-        <v>0.512472104703855</v>
+        <v>0.692693</v>
       </c>
       <c r="I7">
-        <v>0.05903971821192823</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J7">
-        <v>0.05903971821192823</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>94.04424279112894</v>
+        <v>32.27925705292577</v>
       </c>
       <c r="R7">
-        <v>94.04424279112894</v>
+        <v>290.513313476332</v>
       </c>
       <c r="S7">
-        <v>0.02822311496005144</v>
+        <v>0.007985920950183037</v>
       </c>
       <c r="T7">
-        <v>0.02822311496005144</v>
+        <v>0.007985920950183037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.590914547938816</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H8">
-        <v>0.590914547938816</v>
+        <v>0.692693</v>
       </c>
       <c r="I8">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J8">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>60.17061804054956</v>
+        <v>23.01917085957167</v>
       </c>
       <c r="R8">
-        <v>60.17061804054956</v>
+        <v>207.172537736145</v>
       </c>
       <c r="S8">
-        <v>0.0180574825185999</v>
+        <v>0.005694966229299693</v>
       </c>
       <c r="T8">
-        <v>0.0180574825185999</v>
+        <v>0.005694966229299694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.590914547938816</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H9">
-        <v>0.590914547938816</v>
+        <v>0.692693</v>
       </c>
       <c r="I9">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J9">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>58.23341297291954</v>
+        <v>43.43428245243</v>
       </c>
       <c r="R9">
-        <v>58.23341297291954</v>
+        <v>390.90854207187</v>
       </c>
       <c r="S9">
-        <v>0.01747611826171129</v>
+        <v>0.01074568555355238</v>
       </c>
       <c r="T9">
-        <v>0.01747611826171129</v>
+        <v>0.01074568555355238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.590914547938816</v>
+        <v>0.5331756666666666</v>
       </c>
       <c r="H10">
-        <v>0.590914547938816</v>
+        <v>1.599527</v>
       </c>
       <c r="I10">
-        <v>0.068076736426068</v>
+        <v>0.05641185467620458</v>
       </c>
       <c r="J10">
-        <v>0.068076736426068</v>
+        <v>0.05641185467620459</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>183.51095001644</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N10">
-        <v>183.51095001644</v>
+        <v>0.168572</v>
       </c>
       <c r="O10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q10">
-        <v>108.4392900707873</v>
+        <v>0.02995949616044444</v>
       </c>
       <c r="R10">
-        <v>108.4392900707873</v>
+        <v>0.269635465444</v>
       </c>
       <c r="S10">
-        <v>0.0325431356457568</v>
+        <v>7.412009751412033E-06</v>
       </c>
       <c r="T10">
-        <v>0.0325431356457568</v>
+        <v>7.412009751412035E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.16363957463151</v>
+        <v>0.5331756666666666</v>
       </c>
       <c r="H11">
-        <v>7.16363957463151</v>
+        <v>1.599527</v>
       </c>
       <c r="I11">
-        <v>0.8252922607416222</v>
+        <v>0.05641185467620458</v>
       </c>
       <c r="J11">
-        <v>0.8252922607416222</v>
+        <v>0.05641185467620459</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.826259398135</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N11">
-        <v>101.826259398135</v>
+        <v>419.396924</v>
       </c>
       <c r="O11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q11">
-        <v>729.4466215611736</v>
+        <v>74.53741151721643</v>
       </c>
       <c r="R11">
-        <v>729.4466215611736</v>
+        <v>670.8367036549479</v>
       </c>
       <c r="S11">
-        <v>0.2189103261032807</v>
+        <v>0.01844063124599703</v>
       </c>
       <c r="T11">
-        <v>0.2189103261032807</v>
+        <v>0.01844063124599703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.16363957463151</v>
+        <v>0.5331756666666666</v>
       </c>
       <c r="H12">
-        <v>7.16363957463151</v>
+        <v>1.599527</v>
       </c>
       <c r="I12">
-        <v>0.8252922607416222</v>
+        <v>0.05641185467620458</v>
       </c>
       <c r="J12">
-        <v>0.8252922607416222</v>
+        <v>0.05641185467620459</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.5479426357753</v>
+        <v>99.694255</v>
       </c>
       <c r="N12">
-        <v>98.5479426357753</v>
+        <v>299.082765</v>
       </c>
       <c r="O12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q12">
-        <v>705.9619418641558</v>
+        <v>53.15455087246166</v>
       </c>
       <c r="R12">
-        <v>705.9619418641558</v>
+        <v>478.3909578521549</v>
       </c>
       <c r="S12">
-        <v>0.2118624644243791</v>
+        <v>0.01315048982428442</v>
       </c>
       <c r="T12">
-        <v>0.2118624644243791</v>
+        <v>0.01315048982428443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.599527</v>
+      </c>
+      <c r="I13">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J13">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>188.11053</v>
+      </c>
+      <c r="N13">
+        <v>564.33159</v>
+      </c>
+      <c r="O13">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P13">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q13">
+        <v>100.29595723977</v>
+      </c>
+      <c r="R13">
+        <v>902.6636151579299</v>
+      </c>
+      <c r="S13">
+        <v>0.02481332159617171</v>
+      </c>
+      <c r="T13">
+        <v>0.02481332159617172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.616884</v>
+      </c>
+      <c r="H14">
+        <v>1.850652</v>
+      </c>
+      <c r="I14">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J14">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.168572</v>
+      </c>
+      <c r="O14">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P14">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q14">
+        <v>0.034663123216</v>
+      </c>
+      <c r="R14">
+        <v>0.311968108944</v>
+      </c>
+      <c r="S14">
+        <v>8.575691857949371E-06</v>
+      </c>
+      <c r="T14">
+        <v>8.575691857949373E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.616884</v>
+      </c>
+      <c r="H15">
+        <v>1.850652</v>
+      </c>
+      <c r="I15">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J15">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N15">
+        <v>419.396924</v>
+      </c>
+      <c r="O15">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P15">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q15">
+        <v>86.23975068827198</v>
+      </c>
+      <c r="R15">
+        <v>776.1577561944479</v>
+      </c>
+      <c r="S15">
+        <v>0.02133580183183335</v>
+      </c>
+      <c r="T15">
+        <v>0.02133580183183335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.616884</v>
+      </c>
+      <c r="H16">
+        <v>1.850652</v>
+      </c>
+      <c r="I16">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J16">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>99.694255</v>
+      </c>
+      <c r="N16">
+        <v>299.082765</v>
+      </c>
+      <c r="O16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q16">
+        <v>61.49979080142</v>
+      </c>
+      <c r="R16">
+        <v>553.49811721278</v>
+      </c>
+      <c r="S16">
+        <v>0.01521511065101847</v>
+      </c>
+      <c r="T16">
+        <v>0.01521511065101847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.616884</v>
+      </c>
+      <c r="H17">
+        <v>1.850652</v>
+      </c>
+      <c r="I17">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J17">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>188.11053</v>
+      </c>
+      <c r="N17">
+        <v>564.33159</v>
+      </c>
+      <c r="O17">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P17">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q17">
+        <v>116.04237618852</v>
+      </c>
+      <c r="R17">
+        <v>1044.38138569668</v>
+      </c>
+      <c r="S17">
+        <v>0.0287090016227287</v>
+      </c>
+      <c r="T17">
+        <v>0.0287090016227287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.376235</v>
+      </c>
+      <c r="H18">
+        <v>22.128705</v>
+      </c>
+      <c r="I18">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J18">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.168572</v>
+      </c>
+      <c r="O18">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P18">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q18">
+        <v>0.41447556214</v>
+      </c>
+      <c r="R18">
+        <v>3.73028005926</v>
+      </c>
+      <c r="S18">
+        <v>0.0001025416746613969</v>
+      </c>
+      <c r="T18">
+        <v>0.0001025416746613969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.376235</v>
+      </c>
+      <c r="H19">
+        <v>22.128705</v>
+      </c>
+      <c r="I19">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J19">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>1031.19008990038</v>
+      </c>
+      <c r="R19">
+        <v>9280.710809103419</v>
+      </c>
+      <c r="S19">
+        <v>0.2551174746387218</v>
+      </c>
+      <c r="T19">
+        <v>0.2551174746387218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.376235</v>
+      </c>
+      <c r="H20">
+        <v>22.128705</v>
+      </c>
+      <c r="I20">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J20">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>735.368253029925</v>
+      </c>
+      <c r="R20">
+        <v>6618.314277269325</v>
+      </c>
+      <c r="S20">
+        <v>0.1819308520125586</v>
+      </c>
+      <c r="T20">
+        <v>0.1819308520125587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.376235</v>
+      </c>
+      <c r="H21">
+        <v>22.128705</v>
+      </c>
+      <c r="I21">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J21">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>1387.54747525455</v>
+      </c>
+      <c r="R21">
+        <v>12487.92727729095</v>
+      </c>
+      <c r="S21">
+        <v>0.343280653388041</v>
+      </c>
+      <c r="T21">
+        <v>0.343280653388041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03503</v>
+      </c>
+      <c r="H22">
+        <v>0.10509</v>
+      </c>
+      <c r="I22">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J22">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.168572</v>
+      </c>
+      <c r="O22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q22">
+        <v>0.001968359053333333</v>
+      </c>
+      <c r="R22">
+        <v>0.01771523148</v>
+      </c>
+      <c r="S22">
+        <v>4.869740271817172E-07</v>
+      </c>
+      <c r="T22">
+        <v>4.869740271817173E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03503</v>
+      </c>
+      <c r="H23">
+        <v>0.10509</v>
+      </c>
+      <c r="I23">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J23">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N23">
+        <v>419.396924</v>
+      </c>
+      <c r="O23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q23">
+        <v>4.897158082573332</v>
+      </c>
+      <c r="R23">
+        <v>44.07442274316</v>
+      </c>
+      <c r="S23">
+        <v>0.001211561879006624</v>
+      </c>
+      <c r="T23">
+        <v>0.001211561879006624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.16363957463151</v>
-      </c>
-      <c r="H13">
-        <v>7.16363957463151</v>
-      </c>
-      <c r="I13">
-        <v>0.8252922607416222</v>
-      </c>
-      <c r="J13">
-        <v>0.8252922607416222</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N13">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O13">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P13">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q13">
-        <v>1314.606303915995</v>
-      </c>
-      <c r="R13">
-        <v>1314.606303915995</v>
-      </c>
-      <c r="S13">
-        <v>0.3945194702139624</v>
-      </c>
-      <c r="T13">
-        <v>0.3945194702139624</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03503</v>
+      </c>
+      <c r="H24">
+        <v>0.10509</v>
+      </c>
+      <c r="I24">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J24">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.694255</v>
+      </c>
+      <c r="N24">
+        <v>299.082765</v>
+      </c>
+      <c r="O24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q24">
+        <v>3.49228975265</v>
+      </c>
+      <c r="R24">
+        <v>31.43060777385</v>
+      </c>
+      <c r="S24">
+        <v>0.0008639960285972353</v>
+      </c>
+      <c r="T24">
+        <v>0.0008639960285972355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03503</v>
+      </c>
+      <c r="H25">
+        <v>0.10509</v>
+      </c>
+      <c r="I25">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J25">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>188.11053</v>
+      </c>
+      <c r="N25">
+        <v>564.33159</v>
+      </c>
+      <c r="O25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q25">
+        <v>6.5895118659</v>
+      </c>
+      <c r="R25">
+        <v>59.3056067931</v>
+      </c>
+      <c r="S25">
+        <v>0.001630251922313087</v>
+      </c>
+      <c r="T25">
+        <v>0.001630251922313087</v>
       </c>
     </row>
   </sheetData>
